--- a/tests/data/input/一级报告详情测试用例-12001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-12001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="171">
   <si>
     <t>用例编号</t>
   </si>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_bank_7d=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_bank_1m=2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -389,10 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_bank_1m=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_bank_3m=2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,10 +393,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_bank_3m=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_sloan_7d=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,10 +401,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_sloan_7d=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_sloan_1m=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,10 +409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_sloan_1m=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_sloan_3m=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,10 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_sloan_3m=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_p2p_7d=5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,10 +425,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_p2p_7d=5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_p2p_1m=5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,10 +433,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_p2p_1m=5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_p2p_3m=5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,10 +441,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_p2p_3m=5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_confin_7d=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,10 +449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_confin_7d=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_confin_1m=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -497,16 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_confin_1m=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name;
-id_card_no;
-phone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_confin_3m=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -515,10 +465,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_confin_3m=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_other_7d=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -527,10 +473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_other_7d=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_other_1m=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,10 +481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_other_1m=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anti_tel_apply_other_3m=4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -551,7 +489,174 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_other_3m=4</t>
+    <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''; info_anti_fraud_strategy.strategy_name[1]=''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_bank_7d=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_bank_1m=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_bank_3m=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:25,银行:7,P2P理财:5,线下小贷:8,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_sloan_7d=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:25,银行:7,P2P理财:5,线下小贷:8,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_sloan_1m=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:25,银行:7,P2P理财:5,线下小贷:8,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_sloan_3m=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:19,银行:2,P2P理财:8,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_p2p_7d=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_p2p_1m=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:19,银行:2,P2P理财:8,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_p2p_3m=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:19,银行:2,P2P理财:8,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:18,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:3,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_confin_7d=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:18,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:3,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_confin_1m=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:18,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:3,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_confin_3m=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:22,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:2'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_other_7d=5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:22,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:2'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_other_1m=5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:22,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:2'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_other_3m=5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -685,6 +790,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,7 +1108,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1008,7 +1122,7 @@
     <col min="9" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1177,7 @@
       <c r="G2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1094,7 +1208,7 @@
       <c r="G3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>111</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1116,13 +1230,21 @@
       <c r="D4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
@@ -1148,8 +1270,8 @@
       <c r="G5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>113</v>
+      <c r="H5" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
@@ -1179,8 +1301,8 @@
       <c r="G6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>114</v>
+      <c r="H6" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>13</v>
@@ -1201,13 +1323,21 @@
       <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
@@ -1233,8 +1363,8 @@
       <c r="G8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>116</v>
+      <c r="H8" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>13</v>
@@ -1264,8 +1394,8 @@
       <c r="G9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>117</v>
+      <c r="H9" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>13</v>
@@ -1273,7 +1403,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="54">
+    <row r="10" spans="1:11" ht="148.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1286,13 +1416,21 @@
       <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
@@ -1318,8 +1456,8 @@
       <c r="G11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>119</v>
+      <c r="H11" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>13</v>
@@ -1349,8 +1487,8 @@
       <c r="G12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>120</v>
+      <c r="H12" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>13</v>
@@ -1358,7 +1496,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="40.5">
+    <row r="13" spans="1:11" ht="148.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1371,11 +1509,17 @@
       <c r="D13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7" t="s">
-        <v>121</v>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>13</v>
@@ -1405,8 +1549,8 @@
       <c r="G14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>122</v>
+      <c r="H14" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
@@ -1436,8 +1580,8 @@
       <c r="G15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>123</v>
+      <c r="H15" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>13</v>
@@ -1445,7 +1589,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="54">
+    <row r="16" spans="1:11" ht="148.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1458,11 +1602,17 @@
       <c r="D16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7" t="s">
-        <v>124</v>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>13</v>
@@ -1492,8 +1642,8 @@
       <c r="G17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>125</v>
+      <c r="H17" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>13</v>
@@ -1523,8 +1673,8 @@
       <c r="G18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>126</v>
+      <c r="H18" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>13</v>
@@ -1532,7 +1682,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="54">
+    <row r="19" spans="1:11" ht="148.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1545,11 +1695,17 @@
       <c r="D19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7" t="s">
-        <v>127</v>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>13</v>
@@ -1579,8 +1735,8 @@
       <c r="G20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>128</v>
+      <c r="H20" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>13</v>
@@ -1610,8 +1766,8 @@
       <c r="G21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>129</v>
+      <c r="H21" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>13</v>
@@ -1619,7 +1775,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="40.5">
+    <row r="22" spans="1:11" ht="148.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1632,11 +1788,17 @@
       <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7" t="s">
-        <v>130</v>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>13</v>
@@ -1666,8 +1828,8 @@
       <c r="G23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>131</v>
+      <c r="H23" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>13</v>
@@ -1697,8 +1859,8 @@
       <c r="G24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>132</v>
+      <c r="H24" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>13</v>
@@ -1706,7 +1868,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="54">
+    <row r="25" spans="1:11" ht="148.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1719,11 +1881,17 @@
       <c r="D25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7" t="s">
-        <v>133</v>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>13</v>
@@ -1753,8 +1921,8 @@
       <c r="G26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>134</v>
+      <c r="H26" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>13</v>
@@ -1784,8 +1952,8 @@
       <c r="G27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>135</v>
+      <c r="H27" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>13</v>
@@ -1793,7 +1961,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="54">
+    <row r="28" spans="1:11" ht="148.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1806,11 +1974,17 @@
       <c r="D28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7" t="s">
-        <v>136</v>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>13</v>
@@ -1840,8 +2014,8 @@
       <c r="G29" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>137</v>
+      <c r="H29" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>13</v>
@@ -1871,8 +2045,8 @@
       <c r="G30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>138</v>
+      <c r="H30" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>13</v>
@@ -1880,7 +2054,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="54">
+    <row r="31" spans="1:11" ht="148.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1893,11 +2067,17 @@
       <c r="D31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7" t="s">
-        <v>139</v>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>13</v>
@@ -1927,8 +2107,8 @@
       <c r="G32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>140</v>
+      <c r="H32" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>13</v>
@@ -1958,8 +2138,8 @@
       <c r="G33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>141</v>
+      <c r="H33" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>13</v>
@@ -1967,7 +2147,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="54">
+    <row r="34" spans="1:11" ht="148.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1980,11 +2160,17 @@
       <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="9" t="s">
-        <v>142</v>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>13</v>
@@ -2014,11 +2200,11 @@
       <c r="G35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>144</v>
+      <c r="H35" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2045,8 +2231,8 @@
       <c r="G36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>145</v>
+      <c r="H36" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>13</v>
@@ -2054,7 +2240,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="54">
+    <row r="37" spans="1:11" ht="148.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2067,11 +2253,17 @@
       <c r="D37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="9" t="s">
-        <v>146</v>
+      <c r="E37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>13</v>
@@ -2101,8 +2293,8 @@
       <c r="G38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>147</v>
+      <c r="H38" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>13</v>
@@ -2132,8 +2324,8 @@
       <c r="G39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>148</v>
+      <c r="H39" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>13</v>
@@ -2141,7 +2333,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="54">
+    <row r="40" spans="1:11" ht="148.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2154,11 +2346,17 @@
       <c r="D40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="9" t="s">
-        <v>149</v>
+      <c r="E40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>13</v>
@@ -2188,8 +2386,8 @@
       <c r="G41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>150</v>
+      <c r="H41" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>13</v>
@@ -2219,8 +2417,8 @@
       <c r="G42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>151</v>
+      <c r="H42" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>13</v>
@@ -2228,7 +2426,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="54">
+    <row r="43" spans="1:11" ht="148.5">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2241,11 +2439,17 @@
       <c r="D43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="10" t="s">
-        <v>152</v>
+      <c r="E43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>13</v>
@@ -2275,8 +2479,8 @@
       <c r="G44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>153</v>
+      <c r="H44" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>13</v>
@@ -2306,8 +2510,8 @@
       <c r="G45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>154</v>
+      <c r="H45" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>13</v>
@@ -2315,7 +2519,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="54">
+    <row r="46" spans="1:11" ht="148.5">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2328,11 +2532,17 @@
       <c r="D46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="10" t="s">
-        <v>155</v>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>13</v>
@@ -2343,5 +2553,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data/input/一级报告详情测试用例-12001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-12001.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC948CE-63E2-4780-BD8F-E814D0B88739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="183">
   <si>
     <t>用例编号</t>
   </si>
@@ -659,12 +660,77 @@
     <t>anti_apply_other_3m=5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_tel_apply_bank_7d=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:14,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_id_apply_bank_7d=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='';
+info_anti_fraud_rule.rule_memo[0-0]=''; info_anti_fraud_rule.rule_name[1-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:21,银行:5,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_bank_7d=5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_bank_7d=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='';
+info_anti_fraud_rule.rule_memo[0-0]=''; info_anti_fraud_rule.rule_name[1-0]='';
+info_anti_fraud_rule.rule_memo[1-0]=''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_apply_other_3m=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[1-0]='总数:29,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:2，保理:7'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,7 +869,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -819,7 +885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,6 +960,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -929,6 +1012,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,25 +1204,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="7" width="46.625" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="11" width="14.625" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="7" width="46.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="11" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="105" customHeight="1">
+    <row r="2" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1186,18 +1286,18 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="105" customHeight="1">
+    <row r="3" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -1206,10 +1306,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>111</v>
+        <v>171</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>13</v>
@@ -1217,30 +1317,30 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="105" customHeight="1">
+    <row r="4" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>141</v>
+        <v>174</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>13</v>
@@ -1248,30 +1348,28 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1">
+    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>112</v>
+        <v>173</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
@@ -1279,7 +1377,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="105" customHeight="1">
+    <row r="6" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1287,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -1299,10 +1397,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>13</v>
@@ -1310,7 +1408,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="105" customHeight="1">
+    <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1318,22 +1416,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>13</v>
@@ -1341,7 +1439,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="105" customHeight="1">
+    <row r="8" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1349,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>11</v>
@@ -1361,10 +1459,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>13</v>
@@ -1372,7 +1470,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="105" customHeight="1">
+    <row r="9" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1380,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
@@ -1391,11 +1489,9 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="12" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>13</v>
@@ -1403,18 +1499,18 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="148.5">
+    <row r="10" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>11</v>
@@ -1423,10 +1519,10 @@
         <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>13</v>
@@ -1434,7 +1530,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="81">
+    <row r="11" spans="1:11" ht="112" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1442,22 +1538,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>13</v>
@@ -1465,7 +1561,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="81">
+    <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1473,22 +1569,20 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="12" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>13</v>
@@ -1496,7 +1590,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="148.5">
+    <row r="13" spans="1:11" ht="70" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1504,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>11</v>
@@ -1516,10 +1610,10 @@
         <v>140</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>13</v>
@@ -1527,7 +1621,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="81">
+    <row r="14" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1535,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>11</v>
@@ -1550,7 +1644,7 @@
         <v>107</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
@@ -1558,7 +1652,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="81">
+    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1566,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -1581,7 +1675,7 @@
         <v>105</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>13</v>
@@ -1589,7 +1683,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="148.5">
+    <row r="16" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1597,10 +1691,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
@@ -1609,10 +1703,10 @@
         <v>140</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>13</v>
@@ -1620,7 +1714,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="81">
+    <row r="17" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1628,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>11</v>
@@ -1643,7 +1737,7 @@
         <v>108</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>13</v>
@@ -1651,18 +1745,18 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="81">
+    <row r="18" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -1673,8 +1767,8 @@
       <c r="G18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>121</v>
+      <c r="H18" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>13</v>
@@ -1682,18 +1776,18 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="148.5">
+    <row r="19" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>11</v>
@@ -1702,10 +1796,10 @@
         <v>140</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>13</v>
@@ -1713,7 +1807,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="81">
+    <row r="20" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1721,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>11</v>
@@ -1736,7 +1830,7 @@
         <v>104</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>13</v>
@@ -1744,7 +1838,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="81">
+    <row r="21" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1752,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>11</v>
@@ -1767,7 +1861,7 @@
         <v>106</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>13</v>
@@ -1775,7 +1869,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="148.5">
+    <row r="22" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1783,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>11</v>
@@ -1795,10 +1889,10 @@
         <v>140</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>13</v>
@@ -1806,7 +1900,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="81">
+    <row r="23" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1814,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1829,7 +1923,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>13</v>
@@ -1837,7 +1931,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="81">
+    <row r="24" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1845,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>11</v>
@@ -1860,7 +1954,7 @@
         <v>105</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>13</v>
@@ -1868,7 +1962,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="148.5">
+    <row r="25" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1876,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -1888,10 +1982,10 @@
         <v>140</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>13</v>
@@ -1899,18 +1993,18 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="81">
+    <row r="26" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -1921,8 +2015,8 @@
       <c r="G26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>126</v>
+      <c r="H26" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>13</v>
@@ -1930,18 +2024,18 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="81">
+    <row r="27" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -1952,8 +2046,8 @@
       <c r="G27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>127</v>
+      <c r="H27" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>13</v>
@@ -1961,7 +2055,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="148.5">
+    <row r="28" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1969,10 +2063,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
@@ -1981,10 +2075,10 @@
         <v>140</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>13</v>
@@ -1992,7 +2086,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="81">
+    <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2000,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>11</v>
@@ -2015,7 +2109,7 @@
         <v>104</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>13</v>
@@ -2023,7 +2117,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="81">
+    <row r="30" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2031,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>11</v>
@@ -2046,7 +2140,7 @@
         <v>106</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>13</v>
@@ -2054,7 +2148,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="148.5">
+    <row r="31" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2062,10 +2156,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>11</v>
@@ -2074,10 +2168,10 @@
         <v>140</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>13</v>
@@ -2085,7 +2179,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="81">
+    <row r="32" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2093,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>11</v>
@@ -2108,7 +2202,7 @@
         <v>107</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>13</v>
@@ -2116,7 +2210,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="81">
+    <row r="33" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2124,10 +2218,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>11</v>
@@ -2139,7 +2233,7 @@
         <v>105</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>13</v>
@@ -2147,18 +2241,18 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="148.5">
+    <row r="34" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>46</v>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>11</v>
@@ -2167,10 +2261,10 @@
         <v>140</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>13</v>
@@ -2178,18 +2272,18 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="81">
+    <row r="35" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>47</v>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>11</v>
@@ -2200,8 +2294,8 @@
       <c r="G35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>132</v>
+      <c r="H35" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>13</v>
@@ -2209,18 +2303,18 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="81">
+    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>48</v>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>11</v>
@@ -2231,8 +2325,8 @@
       <c r="G36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>133</v>
+      <c r="H36" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>13</v>
@@ -2240,18 +2334,18 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="148.5">
+    <row r="37" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>49</v>
+      <c r="C37" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>11</v>
@@ -2260,10 +2354,10 @@
         <v>140</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>13</v>
@@ -2271,18 +2365,18 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="81">
+    <row r="38" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>50</v>
+      <c r="C38" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
@@ -2293,8 +2387,8 @@
       <c r="G38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>134</v>
+      <c r="H38" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>13</v>
@@ -2302,18 +2396,18 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="81">
+    <row r="39" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>51</v>
+      <c r="C39" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>11</v>
@@ -2324,8 +2418,8 @@
       <c r="G39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>135</v>
+      <c r="H39" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>13</v>
@@ -2333,18 +2427,18 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="148.5">
+    <row r="40" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>52</v>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>11</v>
@@ -2353,10 +2447,10 @@
         <v>140</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>13</v>
@@ -2364,18 +2458,18 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="81">
+    <row r="41" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>53</v>
+      <c r="C41" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>11</v>
@@ -2386,8 +2480,8 @@
       <c r="G41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>136</v>
+      <c r="H41" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>13</v>
@@ -2395,18 +2489,18 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="81">
+    <row r="42" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>54</v>
+      <c r="C42" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>11</v>
@@ -2417,8 +2511,8 @@
       <c r="G42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>137</v>
+      <c r="H42" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>13</v>
@@ -2426,18 +2520,18 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="148.5">
+    <row r="43" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>55</v>
+      <c r="C43" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>11</v>
@@ -2446,10 +2540,10 @@
         <v>140</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>13</v>
@@ -2457,18 +2551,18 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="81">
+    <row r="44" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>56</v>
+      <c r="C44" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>11</v>
@@ -2480,7 +2574,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>13</v>
@@ -2488,18 +2582,18 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="81">
+    <row r="45" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>57</v>
+      <c r="C45" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>11</v>
@@ -2511,7 +2605,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>13</v>
@@ -2519,18 +2613,18 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="148.5">
+    <row r="46" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>58</v>
+      <c r="C46" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>11</v>
@@ -2539,16 +2633,326 @@
         <v>140</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tests/data/input/一级报告详情测试用例-12001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-12001.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC948CE-63E2-4780-BD8F-E814D0B88739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,22 +714,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anti_apply_other_3m=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:16,银行:2,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:1'; info_anti_fraud_rule.rule_name[1-0]='身份证三个月内多头申请过多';
 info_anti_fraud_rule.rule_memo[1-0]='总数:29,银行:7,P2P理财:5,线下小贷:4,其它:3,持牌消费金融:1,现金借贷:2，保理:7'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>anti_apply_other_3m=12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,7 +868,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -885,7 +884,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,23 +959,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1012,23 +994,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1204,25 +1169,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="7" width="46.6328125" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="11" width="14.6328125" customWidth="1"/>
+    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="7" width="46.625" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="105" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1286,7 +1251,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="105" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1317,7 +1282,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="105" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1348,7 +1313,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="105" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1377,7 +1342,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="105" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1408,7 +1373,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="105" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1439,7 +1404,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1470,7 +1435,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="105" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1499,7 +1464,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="148.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1530,7 +1495,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="112" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="108">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1561,7 +1526,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="54">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1590,7 +1555,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="67.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1621,7 +1586,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="105" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1652,7 +1617,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="105" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1683,7 +1648,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="105" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1714,7 +1679,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="105" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1745,7 +1710,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="105" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1776,7 +1741,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="148.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1807,7 +1772,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="81">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1838,7 +1803,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="81">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1869,7 +1834,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="148.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1900,7 +1865,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="81">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1931,7 +1896,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="81">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1962,7 +1927,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="148.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1993,7 +1958,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="81">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2024,7 +1989,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="81">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2055,7 +2020,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="148.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2086,7 +2051,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="81">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2117,7 +2082,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="81">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2148,7 +2113,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="148.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2179,7 +2144,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="81">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2210,7 +2175,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="81">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2241,7 +2206,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="148.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2272,7 +2237,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="81">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2303,7 +2268,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="81">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2334,7 +2299,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="148.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2365,7 +2330,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="81">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2396,7 +2361,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="81">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2427,7 +2392,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="148.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2458,7 +2423,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="81">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2489,7 +2454,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="81">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2520,7 +2485,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="148.5">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2551,7 +2516,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="81">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2582,7 +2547,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="81">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2613,7 +2578,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="148.5">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2644,7 +2609,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="81">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2675,7 +2640,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="81">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2706,7 +2671,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="148.5">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2737,7 +2702,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="81">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2768,7 +2733,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="81">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2799,7 +2764,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="148.5">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2830,7 +2795,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="81">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2861,7 +2826,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="81">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2892,7 +2857,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="148.5">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2923,7 +2888,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="154" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="148.5">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2943,10 +2908,10 @@
         <v>140</v>
       </c>
       <c r="G56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>13</v>
